--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C6E1C3-E7F5-49DB-A103-FB201FA217B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0462136-8142-40B6-A431-A7334F97EBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Keyword</t>
   </si>
@@ -82,58 +82,52 @@
     <t>ProfileType</t>
   </si>
   <si>
-    <t>SearchClick</t>
-  </si>
-  <si>
-    <t>SearchText</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
     <t>WaitForPageLoad</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Cash Fund Profile</t>
   </si>
   <si>
-    <t>Agency_CF</t>
-  </si>
-  <si>
-    <t>Fiscal_CF</t>
-  </si>
-  <si>
-    <t>getData=Agency_CF</t>
-  </si>
-  <si>
-    <t>getData=Fiscal_CF</t>
-  </si>
-  <si>
-    <t>checkAccessibility</t>
-  </si>
-  <si>
-    <t>TC_SM_COA_ListView_D3</t>
+    <t>J02</t>
+  </si>
+  <si>
+    <t>dropdown_profileType_coa</t>
+  </si>
+  <si>
+    <t>dropdown_agency</t>
   </si>
   <si>
     <t>button_addNewProfile</t>
   </si>
   <si>
-    <t>dropdown_profileType_sm_coa</t>
-  </si>
-  <si>
-    <t>dropdown_agency_sm_coa</t>
-  </si>
-  <si>
-    <t>dropdown_fiscal_sm_coa</t>
-  </si>
-  <si>
-    <t>Select Cash Fund Profile</t>
-  </si>
-  <si>
-    <t>J02 - J02</t>
+    <t>ListView- Cash Fund Profile</t>
+  </si>
+  <si>
+    <t>ListView- Appropriation Number Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APPROPRIATION NUMBER PROFILE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - J02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023 </t>
+  </si>
+  <si>
+    <t>getData=Agency</t>
+  </si>
+  <si>
+    <t>getData=Fiscal</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Fiscal</t>
+  </si>
+  <si>
+    <t>dropdown_appropriationYear_coa</t>
   </si>
 </sst>
 </file>
@@ -217,12 +211,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,16 +532,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0417F25A-CB7B-4BB7-BF6E-139F4FF9C255}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -589,12 +584,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -604,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -618,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -629,13 +626,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -643,10 +640,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -656,42 +653,12 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -701,25 +668,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE1231-2260-4E75-BAC5-1DE9E60B5BB4}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,48 +695,49 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4">
         <v>2023</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4">
-        <v>766</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0462136-8142-40B6-A431-A7334F97EBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEB2DE7-37B3-4399-AF0E-4B85280CBD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Keyword</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>dropdown_appropriationYear_coa</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>TC_SM_COA_ListView_D3</t>
   </si>
 </sst>
 </file>
@@ -211,13 +217,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0417F25A-CB7B-4BB7-BF6E-139F4FF9C255}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,14 +593,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -601,10 +608,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -615,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -626,13 +633,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -640,7 +647,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -653,12 +660,26 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -670,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE1231-2260-4E75-BAC5-1DE9E60B5BB4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0462136-8142-40B6-A431-A7334F97EBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B3949C-01CF-4067-B55E-6E2E47C51E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Keyword</t>
   </si>
@@ -85,12 +85,6 @@
     <t>WaitForPageLoad</t>
   </si>
   <si>
-    <t>Cash Fund Profile</t>
-  </si>
-  <si>
-    <t>J02</t>
-  </si>
-  <si>
     <t>dropdown_profileType_coa</t>
   </si>
   <si>
@@ -127,7 +121,10 @@
     <t>Fiscal</t>
   </si>
   <si>
-    <t>dropdown_appropriationYear_coa</t>
+    <t xml:space="preserve"> CASH FUND PROFILE</t>
+  </si>
+  <si>
+    <t>dropdown_fiscal_coa</t>
   </si>
 </sst>
 </file>
@@ -534,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0417F25A-CB7B-4BB7-BF6E-139F4FF9C255}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -601,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -615,10 +612,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -629,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -643,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -670,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE1231-2260-4E75-BAC5-1DE9E60B5BB4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,10 +692,10 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -709,13 +706,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="4">
         <v>2023</v>
@@ -727,16 +724,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
